--- a/understanding_and_utilizing_test_design_techniques/11_テスト設計書.xlsx
+++ b/understanding_and_utilizing_test_design_techniques/11_テスト設計書.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0854EAE7-4707-6C4A-96E0-E8BA99BDA111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C22C51-E2FD-CC48-A9FB-934342AAD461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30380" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C21B3091-894C-2343-91C2-2F53834CC21E}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C21B3091-894C-2343-91C2-2F53834CC21E}"/>
   </bookViews>
   <sheets>
     <sheet name="(解説)テスト設計書" sheetId="2" r:id="rId1"/>
     <sheet name="テスト設計書" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -248,10 +247,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トレーザビリティ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -648,6 +643,10 @@
   </si>
   <si>
     <t>ページ名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トレーサビリティ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -987,8 +986,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1004,12 +1003,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1968500" y="1955800"/>
-          <a:ext cx="1930400" cy="1384300"/>
+          <a:ext cx="1930400" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val -28691"/>
-            <a:gd name="adj2" fmla="val -92742"/>
+            <a:gd name="adj2" fmla="val -78639"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1068,7 +1067,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>482600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1085,12 +1084,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4178300" y="1981200"/>
-          <a:ext cx="1917700" cy="1384300"/>
+          <a:ext cx="1917700" cy="1917700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 33214"/>
-            <a:gd name="adj2" fmla="val -90907"/>
+            <a:gd name="adj1" fmla="val 32552"/>
+            <a:gd name="adj2" fmla="val -80311"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1141,8 +1140,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1158,12 +1157,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6159500" y="1854200"/>
-          <a:ext cx="2667000" cy="1384300"/>
+          <a:ext cx="2667000" cy="2108200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 49404"/>
-            <a:gd name="adj2" fmla="val -88155"/>
+            <a:gd name="adj1" fmla="val 46547"/>
+            <a:gd name="adj2" fmla="val -76709"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1222,8 +1221,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1239,12 +1238,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8902700" y="2032000"/>
-          <a:ext cx="2667000" cy="1384300"/>
+          <a:ext cx="2667000" cy="2006600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 28928"/>
-            <a:gd name="adj2" fmla="val -99164"/>
+            <a:gd name="adj1" fmla="val 27023"/>
+            <a:gd name="adj2" fmla="val -85240"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1287,8 +1286,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1304,12 +1303,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11671300" y="2133600"/>
-          <a:ext cx="2667000" cy="1384300"/>
+          <a:ext cx="2667000" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val 5119"/>
-            <a:gd name="adj2" fmla="val -106503"/>
+            <a:gd name="adj2" fmla="val -88378"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1361,8 +1360,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3416300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1378,12 +1377,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14452600" y="2044700"/>
-          <a:ext cx="2667000" cy="1384300"/>
+          <a:ext cx="2667000" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -64406"/>
-            <a:gd name="adj2" fmla="val -100081"/>
+            <a:gd name="adj1" fmla="val -55835"/>
+            <a:gd name="adj2" fmla="val -83414"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1851,16 +1850,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>3</v>
@@ -1887,10 +1886,10 @@
         <v>21</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
@@ -1908,10 +1907,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>30</v>
@@ -1929,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>30</v>
@@ -1952,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>30</v>
@@ -1970,13 +1969,13 @@
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -1996,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>8</v>
@@ -2014,13 +2013,13 @@
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>8</v>
@@ -2040,10 +2039,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>8</v>
@@ -2061,10 +2060,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>8</v>
@@ -2079,13 +2078,13 @@
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>8</v>
@@ -2105,10 +2104,10 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>8</v>
@@ -2126,10 +2125,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>8</v>
@@ -2149,10 +2148,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>8</v>
@@ -2170,10 +2169,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>8</v>
@@ -2188,13 +2187,13 @@
       <c r="B20" s="14"/>
       <c r="C20" s="16"/>
       <c r="D20" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>8</v>
@@ -2214,10 +2213,10 @@
         <v>21</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>30</v>
@@ -2235,10 +2234,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>30</v>
@@ -2256,10 +2255,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>30</v>
@@ -2278,10 +2277,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>28</v>
@@ -2290,7 +2289,7 @@
         <v>30</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="42">
@@ -2300,13 +2299,13 @@
       </c>
       <c r="B25" s="14"/>
       <c r="D25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>30</v>
@@ -2320,13 +2319,13 @@
       </c>
       <c r="B26" s="14"/>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>30</v>
@@ -2340,16 +2339,16 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>30</v>
@@ -2369,10 +2368,10 @@
         <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>8</v>
@@ -2390,10 +2389,10 @@
         <v>27</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>8</v>
@@ -2408,13 +2407,13 @@
       <c r="B30" s="14"/>
       <c r="C30" s="4"/>
       <c r="D30" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>8</v>
@@ -2434,10 +2433,10 @@
         <v>27</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>8</v>
@@ -2452,13 +2451,13 @@
       <c r="B32" s="14"/>
       <c r="C32" s="4"/>
       <c r="D32" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>8</v>
@@ -2475,13 +2474,13 @@
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>30</v>
@@ -2496,13 +2495,13 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>30</v>
@@ -2517,13 +2516,13 @@
       <c r="B35" s="14"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>30</v>
@@ -2546,7 +2545,7 @@
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>8</v>
@@ -2565,7 +2564,7 @@
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>8</v>
@@ -2584,7 +2583,7 @@
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>8</v>
@@ -2598,16 +2597,16 @@
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>8</v>
@@ -2622,11 +2621,11 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>8</v>
@@ -2641,7 +2640,7 @@
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
@@ -2662,7 +2661,7 @@
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>8</v>
@@ -2676,14 +2675,14 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>8</v>
@@ -2699,10 +2698,10 @@
       <c r="C44" s="14"/>
       <c r="D44" s="26"/>
       <c r="E44" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>8</v>
@@ -2718,10 +2717,10 @@
       <c r="C45" s="4"/>
       <c r="D45" s="26"/>
       <c r="E45" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>8</v>
@@ -2736,11 +2735,11 @@
       <c r="B46" s="14"/>
       <c r="C46" s="27"/>
       <c r="D46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>8</v>
@@ -2759,7 +2758,7 @@
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>8</v>
@@ -2776,7 +2775,7 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>8</v>
@@ -2793,7 +2792,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>8</v>
@@ -2844,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>3</v>
@@ -2880,10 +2879,10 @@
         <v>21</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
@@ -2901,10 +2900,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>30</v>
@@ -2922,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>30</v>
@@ -2945,10 +2944,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>30</v>
@@ -2963,13 +2962,13 @@
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -2989,10 +2988,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>8</v>
@@ -3007,13 +3006,13 @@
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>8</v>
@@ -3033,10 +3032,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>8</v>
@@ -3054,10 +3053,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>8</v>
@@ -3072,13 +3071,13 @@
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>8</v>
@@ -3098,10 +3097,10 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>8</v>
@@ -3119,10 +3118,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>8</v>
@@ -3142,10 +3141,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>8</v>
@@ -3163,10 +3162,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>8</v>
@@ -3181,13 +3180,13 @@
       <c r="B20" s="14"/>
       <c r="C20" s="16"/>
       <c r="D20" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>8</v>
@@ -3207,10 +3206,10 @@
         <v>21</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>30</v>
@@ -3228,10 +3227,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>30</v>
@@ -3249,10 +3248,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>30</v>
@@ -3271,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>28</v>
@@ -3283,7 +3282,7 @@
         <v>30</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="42">
@@ -3293,13 +3292,13 @@
       </c>
       <c r="B25" s="14"/>
       <c r="D25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>30</v>
@@ -3313,13 +3312,13 @@
       </c>
       <c r="B26" s="14"/>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>30</v>
@@ -3333,16 +3332,16 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>30</v>
@@ -3362,10 +3361,10 @@
         <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>8</v>
@@ -3383,10 +3382,10 @@
         <v>27</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>8</v>
@@ -3401,13 +3400,13 @@
       <c r="B30" s="14"/>
       <c r="C30" s="4"/>
       <c r="D30" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>8</v>
@@ -3427,10 +3426,10 @@
         <v>27</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>8</v>
@@ -3445,13 +3444,13 @@
       <c r="B32" s="14"/>
       <c r="C32" s="4"/>
       <c r="D32" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>8</v>
@@ -3468,13 +3467,13 @@
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>30</v>
@@ -3489,13 +3488,13 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>30</v>
@@ -3510,13 +3509,13 @@
       <c r="B35" s="14"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>30</v>
@@ -3539,7 +3538,7 @@
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>8</v>
@@ -3558,7 +3557,7 @@
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>8</v>
@@ -3577,7 +3576,7 @@
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>8</v>
@@ -3591,16 +3590,16 @@
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>8</v>
@@ -3615,11 +3614,11 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>8</v>
@@ -3634,7 +3633,7 @@
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
@@ -3655,7 +3654,7 @@
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>8</v>
@@ -3669,14 +3668,14 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>8</v>
@@ -3692,10 +3691,10 @@
       <c r="C44" s="14"/>
       <c r="D44" s="26"/>
       <c r="E44" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>8</v>
@@ -3711,10 +3710,10 @@
       <c r="C45" s="4"/>
       <c r="D45" s="26"/>
       <c r="E45" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>8</v>
@@ -3729,11 +3728,11 @@
       <c r="B46" s="14"/>
       <c r="C46" s="27"/>
       <c r="D46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>8</v>
@@ -3752,7 +3751,7 @@
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>8</v>
@@ -3769,7 +3768,7 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>8</v>
@@ -3786,7 +3785,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>8</v>

--- a/understanding_and_utilizing_test_design_techniques/11_テスト設計書.xlsx
+++ b/understanding_and_utilizing_test_design_techniques/11_テスト設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C22C51-E2FD-CC48-A9FB-934342AAD461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F628C-0B9C-4444-9849-FD339A3B0628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C21B3091-894C-2343-91C2-2F53834CC21E}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>トレーザビリティ</a:t>
+            <a:t>トレーサビリティ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
